--- a/Excel2Json/Test/mask_font.xlsx
+++ b/Excel2Json/Test/mask_font.xlsx
@@ -7847,10 +7847,6 @@
     <t>街头对抗</t>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7863,10 +7859,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>名字敏感词</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7880,6 +7872,14 @@
   </si>
   <si>
     <t>chat_word</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id[5000]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string;64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8264,7 +8264,7 @@
   <dimension ref="A1:C3014"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8274,46 +8274,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2584</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2578</v>
+        <v>2586</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2578</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>2582</v>
+        <v>2585</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2585</v>
+        <v>2583</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
